--- a/list_4_r.xlsx
+++ b/list_4_r.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1246,6 +1246,14 @@
         <v>3170</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3189</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1257,7 +1265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2069,6 +2077,14 @@
         <v>1216</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2080,7 +2096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2892,6 +2908,14 @@
         <v>1350</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1351</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2903,7 +2927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3715,6 +3739,14 @@
         <v>1922</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1921</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3726,7 +3758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4538,6 +4570,14 @@
         <v>801</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>807</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4549,7 +4589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5361,6 +5401,14 @@
         <v>1546</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1543</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/list_4_r.xlsx
+++ b/list_4_r.xlsx
@@ -456,802 +456,802 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>1766</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>1775</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>1806</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>1803</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>1812</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>1806</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>2183</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>2189</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>2156</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>2190</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>2171</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>2160</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>2219</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>2294</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>2239</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>2288</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>2280</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>1940</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>1754</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>1748</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>1760</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>1770</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>1771</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>1752</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>1755</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>1783</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>1779</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>1779</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>1803</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>1803</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>1796</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>1806</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>1812</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>1809</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>1787</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>1784</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>1765</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>1765</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>1780</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>1803</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>1790</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>2156</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>2151</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>2166</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>2174</v>
+        <v>2206</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>2158</v>
+        <v>2204</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>2206</v>
+        <v>2196</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>2204</v>
+        <v>2234</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>2196</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>2234</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>2509</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>2735</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>2723</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>2713</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>2769</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>2802</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>2839</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>2857</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>2836</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>2822</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>2822</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>2818</v>
+        <v>2863</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>2804</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>2863</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>2873</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>2878</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>2990</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>3059</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>3063</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>3068</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>3132</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>3183</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>3169</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>3275</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>3307</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>3390</v>
+        <v>3220</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>3229</v>
+        <v>3238</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>3220</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>3238</v>
+        <v>3142</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>3211</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>3142</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>3119</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>3137</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>3100</v>
+        <v>3132</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>3096</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>3132</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>3399</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>3555</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>3614</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>3591</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>3498</v>
+        <v>3714</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>3536</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>3714</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>3648</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>3657</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>3695</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>3039</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>3170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>3189</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1287,447 +1287,447 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>714</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>722</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>666</v>
+        <v>693</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>693</v>
+        <v>874</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>692</v>
+        <v>871</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>874</v>
+        <v>865</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>871</v>
+        <v>851</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>865</v>
+        <v>851</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>851</v>
+        <v>857</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>851</v>
+        <v>835</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>857</v>
+        <v>881</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>835</v>
+        <v>863</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>881</v>
+        <v>920</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>863</v>
+        <v>975</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>920</v>
+        <v>951</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>951</v>
+        <v>992</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>974</v>
+        <v>985</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>992</v>
+        <v>995</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>985</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>995</v>
+        <v>992</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>1015</v>
+        <v>977</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>977</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>990</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>1086</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>1107</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>1107</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>1113</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>1093</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>1071</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>1077</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>1076</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>1084</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>1067</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>1070</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>1050</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>1025</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>1012</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>1002</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>1040</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>1159</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>1179</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>1179</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>1176</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>1190</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>1180</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>1180</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>1187</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>1217</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>1290</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>1270</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>1256</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
         <v>1239</v>
@@ -1735,71 +1735,71 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>1239</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>1243</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>1242</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>1246</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>1249</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>1215</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>1198</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
         <v>1239</v>
@@ -1807,282 +1807,282 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>1225</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>1239</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>1233</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>1247</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>1240</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>1237</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>1221</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>1225</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>1211</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>1228</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>1231</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>1221</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>1222</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>1208</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>1198</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>1174</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>1181</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>1177</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>1205</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>1193</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>1165</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>1164</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>1178</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>1210</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>1192</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>1203</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>1182</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>1221</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>1237</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>1230</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>1212</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>1216</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>1216</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2118,351 +2118,351 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>887</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>804</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>875</v>
+        <v>901</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>842</v>
+        <v>902</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>901</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>902</v>
+        <v>939</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>985</v>
+        <v>911</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>939</v>
+        <v>909</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>909</v>
+        <v>926</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>916</v>
+        <v>908</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>926</v>
+        <v>922</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>908</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>922</v>
+        <v>963</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>980</v>
+        <v>937</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>963</v>
+        <v>936</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>937</v>
+        <v>940</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>936</v>
+        <v>941</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>940</v>
+        <v>956</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>941</v>
+        <v>962</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>956</v>
+        <v>950</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>962</v>
+        <v>980</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>950</v>
+        <v>985</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>980</v>
+        <v>971</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>985</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>971</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>1003</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>1020</v>
+        <v>998</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>1017</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>998</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>1006</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>1049</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>1049</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>1027</v>
+        <v>958</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>1025</v>
+        <v>944</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>958</v>
+        <v>953</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>944</v>
+        <v>946</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>946</v>
+        <v>970</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>947</v>
+        <v>955</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>970</v>
+        <v>955</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
         <v>955</v>
@@ -2470,450 +2470,450 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>955</v>
+        <v>974</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>955</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>974</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>1057</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>1374</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>1345</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>1646</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>1397</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>1155</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>1165</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>1136</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>1129</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>1129</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>1125</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>1135</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>1146</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>1145</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>1201</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>1174</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>1138</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>1166</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>1182</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>1276</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>1306</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>1313</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>1382</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>1404</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>1414</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>1359</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>1384</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>1406</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>1410</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>1457</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>1443</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>1425</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>1403</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>1412</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>1370</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>1400</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>1362</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>1279</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>1250</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>1269</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>1287</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>1349</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>1385</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>1371</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>1326</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>1313</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>1330</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>1309</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>1342</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>1350</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>1351</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2949,271 +2949,271 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>1520</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>1533</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>1555</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>1574</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>1657</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>1670</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>1771</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>1661</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>1672</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>1674</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>1665</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>1681</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>1682</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>1707</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>1694</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>1787</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>1853</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>1838</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>1792</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>1785</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>1777</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>1793</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>1821</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>1821</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>1818</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>1826</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>1836</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>1852</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>1855</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>1856</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>1843</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>1833</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>1831</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
         <v>1836</v>
@@ -3221,327 +3221,327 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>1838</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>1836</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>1813</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>1785</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>1696</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>1674</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>1665</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>1677</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>1820</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>1765</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>1782</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>1780</v>
+        <v>2246</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>2003</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>2246</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>2261</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>2247</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>2222</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>2239</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>2266</v>
+        <v>2156</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>2209</v>
+        <v>2138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>2156</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>2138</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>2146</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>2157</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>2086</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>2084</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>2069</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>2049</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>2051</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>2001</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>2026</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>2045</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>2063</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>2057</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>2057</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>2073</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>2085</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>2084</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>2090</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>2090</v>
+        <v>2074</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
         <v>2087</v>
@@ -3549,63 +3549,63 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>2074</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>2087</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>2077</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>2030</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>2027</v>
+        <v>1982</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>1999</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>1982</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
         <v>1953</v>
@@ -3613,31 +3613,31 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>1978</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>1953</v>
+        <v>1978</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>1962</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
         <v>1978</v>
@@ -3645,106 +3645,106 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>1969</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>1978</v>
+        <v>1972</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>1965</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>1972</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>1981</v>
+        <v>1944</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>1965</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>1944</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>1935</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>1937</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>1931</v>
+        <v>1922</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>1928</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>1922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>1921</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3780,255 +3780,255 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>962</v>
+        <v>986</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>965</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>986</v>
+        <v>993</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>1004</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>993</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>1012</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>994</v>
+        <v>999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>1004</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>999</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>1010</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>1032</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
-        <v>1063</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>1083</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>1097</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>1093</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>1033</v>
+        <v>998</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>1010</v>
+        <v>992</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>998</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>992</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>1004</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>1024</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>1010</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>1012</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>1033</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>1057</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>1057</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>1059</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>1079</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>1085</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
         <v>1069</v>
@@ -4036,546 +4036,546 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>1077</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>1069</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>1069</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>1051</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>1043</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>1023</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>1015</v>
+        <v>955</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>1005</v>
+        <v>957</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>955</v>
+        <v>975</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>957</v>
+        <v>942</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>975</v>
+        <v>963</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>942</v>
+        <v>956</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>963</v>
+        <v>949</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>949</v>
+        <v>969</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>954</v>
+        <v>939</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>969</v>
+        <v>927</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>939</v>
+        <v>923</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>927</v>
+        <v>915</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>923</v>
+        <v>894</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>915</v>
+        <v>884</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
-        <v>884</v>
+        <v>886</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>886</v>
+        <v>919</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>892</v>
+        <v>881</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>919</v>
+        <v>885</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>881</v>
+        <v>901</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>885</v>
+        <v>893</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>901</v>
+        <v>873</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>893</v>
+        <v>865</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>873</v>
+        <v>853</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>865</v>
+        <v>880</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>853</v>
+        <v>864</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
-        <v>880</v>
+        <v>866</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>864</v>
+        <v>890</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>866</v>
+        <v>873</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>890</v>
+        <v>850</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>850</v>
+        <v>859</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>863</v>
+        <v>847</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>847</v>
+        <v>867</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>853</v>
+        <v>864</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>867</v>
+        <v>860</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>864</v>
+        <v>845</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>860</v>
+        <v>839</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>831</v>
+        <v>820</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>829</v>
+        <v>820</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>820</v>
+        <v>804</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>820</v>
+        <v>803</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>804</v>
+        <v>813</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>803</v>
+        <v>813</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>813</v>
+        <v>802</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>813</v>
+        <v>773</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>773</v>
+        <v>809</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>807</v>
+        <v>811</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>806</v>
+        <v>801</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>801</v>
+        <v>807</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>807</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4611,111 +4611,111 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45807</v>
+        <v>45812</v>
       </c>
       <c r="B2" t="n">
-        <v>835</v>
+        <v>842</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B3" t="n">
-        <v>831</v>
+        <v>859</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45812</v>
+        <v>45817</v>
       </c>
       <c r="B4" t="n">
-        <v>842</v>
+        <v>885</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45813</v>
+        <v>45818</v>
       </c>
       <c r="B5" t="n">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45817</v>
+        <v>45819</v>
       </c>
       <c r="B6" t="n">
-        <v>885</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45818</v>
+        <v>45820</v>
       </c>
       <c r="B7" t="n">
-        <v>856</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45819</v>
+        <v>45821</v>
       </c>
       <c r="B8" t="n">
-        <v>1078</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45820</v>
+        <v>45824</v>
       </c>
       <c r="B9" t="n">
-        <v>1094</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="B10" t="n">
-        <v>1092</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45824</v>
+        <v>45826</v>
       </c>
       <c r="B11" t="n">
-        <v>1099</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="B12" t="n">
-        <v>1100</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45826</v>
+        <v>45828</v>
       </c>
       <c r="B13" t="n">
-        <v>1107</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45827</v>
+        <v>45831</v>
       </c>
       <c r="B14" t="n">
-        <v>1086</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45828</v>
+        <v>45832</v>
       </c>
       <c r="B15" t="n">
         <v>1150</v>
@@ -4723,327 +4723,327 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45831</v>
+        <v>45833</v>
       </c>
       <c r="B16" t="n">
-        <v>1131</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45832</v>
+        <v>45834</v>
       </c>
       <c r="B17" t="n">
-        <v>1150</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45833</v>
+        <v>45835</v>
       </c>
       <c r="B18" t="n">
-        <v>1167</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45834</v>
+        <v>45838</v>
       </c>
       <c r="B19" t="n">
-        <v>1159</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45835</v>
+        <v>45839</v>
       </c>
       <c r="B20" t="n">
-        <v>1157</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45838</v>
+        <v>45840</v>
       </c>
       <c r="B21" t="n">
-        <v>1139</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45839</v>
+        <v>45841</v>
       </c>
       <c r="B22" t="n">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45840</v>
+        <v>45842</v>
       </c>
       <c r="B23" t="n">
-        <v>1126</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45841</v>
+        <v>45845</v>
       </c>
       <c r="B24" t="n">
-        <v>1130</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45842</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="n">
-        <v>1117</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B26" t="n">
-        <v>1119</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="n">
-        <v>1131</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="n">
-        <v>1266</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="n">
-        <v>1271</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="n">
-        <v>1275</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B31" t="n">
-        <v>1266</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B32" t="n">
-        <v>1262</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B33" t="n">
-        <v>1260</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B34" t="n">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B35" t="n">
-        <v>1253</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B36" t="n">
-        <v>1249</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B37" t="n">
-        <v>1235</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="n">
-        <v>1245</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45862</v>
+        <v>45866</v>
       </c>
       <c r="B39" t="n">
-        <v>1241</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45863</v>
+        <v>45867</v>
       </c>
       <c r="B40" t="n">
-        <v>1239</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45866</v>
+        <v>45868</v>
       </c>
       <c r="B41" t="n">
-        <v>1233</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45867</v>
+        <v>45869</v>
       </c>
       <c r="B42" t="n">
-        <v>1225</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45868</v>
+        <v>45870</v>
       </c>
       <c r="B43" t="n">
-        <v>1229</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45869</v>
+        <v>45873</v>
       </c>
       <c r="B44" t="n">
-        <v>1464</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45870</v>
+        <v>45874</v>
       </c>
       <c r="B45" t="n">
-        <v>1449</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45873</v>
+        <v>45875</v>
       </c>
       <c r="B46" t="n">
-        <v>1454</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45874</v>
+        <v>45876</v>
       </c>
       <c r="B47" t="n">
-        <v>1454</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45875</v>
+        <v>45877</v>
       </c>
       <c r="B48" t="n">
-        <v>1527</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45876</v>
+        <v>45880</v>
       </c>
       <c r="B49" t="n">
-        <v>1586</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="B50" t="n">
-        <v>1584</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45880</v>
+        <v>45882</v>
       </c>
       <c r="B51" t="n">
-        <v>1581</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45881</v>
+        <v>45883</v>
       </c>
       <c r="B52" t="n">
-        <v>1578</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45882</v>
+        <v>45887</v>
       </c>
       <c r="B53" t="n">
-        <v>1628</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45883</v>
+        <v>45888</v>
       </c>
       <c r="B54" t="n">
-        <v>1701</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="B55" t="n">
-        <v>1693</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45888</v>
+        <v>45890</v>
       </c>
       <c r="B56" t="n">
         <v>1690</v>
@@ -5051,95 +5051,95 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45889</v>
+        <v>45891</v>
       </c>
       <c r="B57" t="n">
-        <v>1687</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45890</v>
+        <v>45894</v>
       </c>
       <c r="B58" t="n">
-        <v>1690</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45891</v>
+        <v>45895</v>
       </c>
       <c r="B59" t="n">
-        <v>1682</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45894</v>
+        <v>45896</v>
       </c>
       <c r="B60" t="n">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45895</v>
+        <v>45897</v>
       </c>
       <c r="B61" t="n">
-        <v>1710</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45896</v>
+        <v>45898</v>
       </c>
       <c r="B62" t="n">
-        <v>1713</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45897</v>
+        <v>45901</v>
       </c>
       <c r="B63" t="n">
-        <v>1713</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45898</v>
+        <v>45902</v>
       </c>
       <c r="B64" t="n">
-        <v>1705</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45901</v>
+        <v>45903</v>
       </c>
       <c r="B65" t="n">
-        <v>1682</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45902</v>
+        <v>45904</v>
       </c>
       <c r="B66" t="n">
-        <v>1688</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B67" t="n">
-        <v>1688</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45904</v>
+        <v>45908</v>
       </c>
       <c r="B68" t="n">
         <v>1705</v>
@@ -5147,266 +5147,266 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B69" t="n">
-        <v>1708</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B70" t="n">
-        <v>1705</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45909</v>
+        <v>45911</v>
       </c>
       <c r="B71" t="n">
-        <v>1696</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45910</v>
+        <v>45912</v>
       </c>
       <c r="B72" t="n">
-        <v>1708</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B73" t="n">
-        <v>1708</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45912</v>
+        <v>45916</v>
       </c>
       <c r="B74" t="n">
-        <v>1728</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45915</v>
+        <v>45917</v>
       </c>
       <c r="B75" t="n">
-        <v>1731</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45916</v>
+        <v>45918</v>
       </c>
       <c r="B76" t="n">
-        <v>1748</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45917</v>
+        <v>45919</v>
       </c>
       <c r="B77" t="n">
-        <v>1745</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45918</v>
+        <v>45922</v>
       </c>
       <c r="B78" t="n">
-        <v>1745</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45919</v>
+        <v>45923</v>
       </c>
       <c r="B79" t="n">
-        <v>1736</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45922</v>
+        <v>45924</v>
       </c>
       <c r="B80" t="n">
-        <v>1722</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B81" t="n">
-        <v>1703</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45924</v>
+        <v>45926</v>
       </c>
       <c r="B82" t="n">
-        <v>1689</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B83" t="n">
-        <v>1697</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45926</v>
+        <v>45930</v>
       </c>
       <c r="B84" t="n">
-        <v>1603</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45929</v>
+        <v>45931</v>
       </c>
       <c r="B85" t="n">
-        <v>1603</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45930</v>
+        <v>45932</v>
       </c>
       <c r="B86" t="n">
-        <v>1600</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45931</v>
+        <v>45940</v>
       </c>
       <c r="B87" t="n">
-        <v>1606</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45932</v>
+        <v>45943</v>
       </c>
       <c r="B88" t="n">
-        <v>1608</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45940</v>
+        <v>45944</v>
       </c>
       <c r="B89" t="n">
-        <v>1589</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45943</v>
+        <v>45945</v>
       </c>
       <c r="B90" t="n">
-        <v>1638</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45944</v>
+        <v>45946</v>
       </c>
       <c r="B91" t="n">
-        <v>1573</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45945</v>
+        <v>45947</v>
       </c>
       <c r="B92" t="n">
-        <v>1576</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45946</v>
+        <v>45950</v>
       </c>
       <c r="B93" t="n">
-        <v>1579</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45947</v>
+        <v>45951</v>
       </c>
       <c r="B94" t="n">
-        <v>1581</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45950</v>
+        <v>45952</v>
       </c>
       <c r="B95" t="n">
-        <v>1576</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45951</v>
+        <v>45953</v>
       </c>
       <c r="B96" t="n">
-        <v>1576</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45952</v>
+        <v>45954</v>
       </c>
       <c r="B97" t="n">
-        <v>1573</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45953</v>
+        <v>45957</v>
       </c>
       <c r="B98" t="n">
-        <v>1568</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45954</v>
+        <v>45958</v>
       </c>
       <c r="B99" t="n">
-        <v>1559</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45957</v>
+        <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>1546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45958</v>
+        <v>45960</v>
       </c>
       <c r="B101" t="n">
-        <v>1543</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/list_4_r.xlsx
+++ b/list_4_r.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1243,7 +1243,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="101">
@@ -1251,6 +1251,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>3137</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1265,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2074,7 +2082,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="101">
@@ -2082,6 +2090,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2096,7 +2112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2905,7 +2921,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="101">
@@ -2913,6 +2929,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2927,7 +2951,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3736,7 +3760,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="101">
@@ -3744,6 +3768,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3758,7 +3790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4567,7 +4599,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>805</v>
       </c>
     </row>
     <row r="101">
@@ -4575,6 +4607,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4589,7 +4629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5398,7 +5438,7 @@
         <v>45959</v>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="101">
@@ -5406,6 +5446,14 @@
         <v>45960</v>
       </c>
       <c r="B101" t="n">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B102" t="n">
         <v>0</v>
       </c>
     </row>

--- a/list_4_r.xlsx
+++ b/list_4_r.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="YBM넷" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NE능률" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="위즈코프" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="대영포장" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1259,7 +1260,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>3193</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2099,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1163</v>
       </c>
     </row>
   </sheetData>
@@ -2937,7 +2938,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1296</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +3777,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1893</v>
       </c>
     </row>
   </sheetData>
@@ -4615,7 +4616,7 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -5454,7 +5455,838 @@
         <v>45961</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>1510</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>remn_amt</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45813</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45817</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45818</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45820</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45826</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B14" t="n">
+        <v>3548</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45833</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3522</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3509</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3887</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3886</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3948</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3863</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3844</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3916</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3919</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45867</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45868</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3859</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3984</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3878</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B44" t="n">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B47" t="n">
+        <v>4097</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45880</v>
+      </c>
+      <c r="B48" t="n">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3838</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3904</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45883</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45888</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B54" t="n">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B55" t="n">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3943</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45894</v>
+      </c>
+      <c r="B57" t="n">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45895</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3911</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45896</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45897</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45898</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3845</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3842</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45903</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3789</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45904</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45905</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3719</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45908</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45909</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3347</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45910</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3329</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45911</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45912</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3374</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45915</v>
+      </c>
+      <c r="B72" t="n">
+        <v>3388</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45916</v>
+      </c>
+      <c r="B73" t="n">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45917</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45918</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45919</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3310</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45922</v>
+      </c>
+      <c r="B77" t="n">
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45923</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3288</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45924</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45925</v>
+      </c>
+      <c r="B80" t="n">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45926</v>
+      </c>
+      <c r="B81" t="n">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45929</v>
+      </c>
+      <c r="B82" t="n">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B83" t="n">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3149</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45932</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45943</v>
+      </c>
+      <c r="B87" t="n">
+        <v>3122</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B88" t="n">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45945</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45946</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3151</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B91" t="n">
+        <v>3106</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45951</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45952</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45953</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45954</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45957</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45958</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45959</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45960</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2911</v>
       </c>
     </row>
   </sheetData>
